--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -746,6 +746,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -746,7 +746,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4949969801360499</v>
+        <v>0.4946985512672089</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006671348314606917</v>
+        <v>0.004595263343937894</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.240201045121784</v>
+        <v>0.2425277174023199</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003555418148091016</v>
+        <v>0.001540357362908029</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09976690363414653</v>
+        <v>0.09916206945476091</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01209777999501138</v>
+        <v>0.003661153894710445</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1040361893859583</v>
+        <v>0.1032509749825034</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01357380161366872</v>
+        <v>0.009526558891455039</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03179744909386305</v>
+        <v>0.03138960789667272</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01882046026274109</v>
+        <v>0.005032760421612492</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02920143262819806</v>
+        <v>0.02897107899653405</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01391265530838492</v>
+        <v>0.007695789950203924</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006072118854260844</v>
+        <v>0.004374455279570588</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4946985512672089</v>
+        <v>0.4948073089411785</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004595263343937894</v>
+        <v>-0.005629838142153232</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2425277174023199</v>
+        <v>0.241843363778022</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001540357362908029</v>
+        <v>-0.02337742233159013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09916206945476091</v>
+        <v>0.09909164508156437</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003661153894710445</v>
+        <v>-0.02440251572327046</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1032509749825034</v>
+        <v>0.103780617804801</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009526558891455039</v>
+        <v>-0.01401201029453814</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03138960789667272</v>
+        <v>0.03141018183717512</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005032760421612492</v>
+        <v>-0.01795162509448234</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02897107899653405</v>
+        <v>0.02906688255725889</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007695789950203924</v>
+        <v>-0.02687930518119197</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004374455279570588</v>
+        <v>-0.01365678144163962</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4948073089411785</v>
+        <v>0.4988340920510653</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005629838142153232</v>
+        <v>-0.005095541401273884</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.241843363778022</v>
+        <v>0.2394599414087377</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02337742233159013</v>
+        <v>0.002834645669291369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09909164508156437</v>
+        <v>0.09801208933713243</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02440251572327046</v>
+        <v>0.005028365136668489</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.103780617804801</v>
+        <v>0.1037432414948896</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01401201029453814</v>
+        <v>-0.004156999226604841</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03141018183717512</v>
+        <v>0.03127341218381328</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01795162509448234</v>
+        <v>0.0004810467577449629</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02906688255725889</v>
+        <v>0.02867722352436171</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02687930518119197</v>
+        <v>0.004616449949988333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01365678144163962</v>
+        <v>-0.001654034743555521</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4988340920510653</v>
+        <v>0.4971145069486708</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005095541401273884</v>
+        <v>-7.113387395085713E-05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2394599414087377</v>
+        <v>0.2405365813572818</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002834645669291369</v>
+        <v>0.01460427135678399</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09801208933713243</v>
+        <v>0.09866813042593348</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005028365136668489</v>
+        <v>0.001411161000641314</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1037432414948896</v>
+        <v>0.1034831456384883</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004156999226604841</v>
+        <v>-0.01194058829239875</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03127341218381328</v>
+        <v>0.03134029409265042</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004810467577449629</v>
+        <v>-0.0203865756322722</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02867722352436171</v>
+        <v>0.02885734153697536</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004616449949988333</v>
+        <v>-0.005973807153251243</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001654034743555521</v>
+        <v>0.001569777335935552</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4971145069486708</v>
+        <v>0.4963000646746448</v>
       </c>
       <c r="E2" s="1">
-        <v>-7.113387395085713E-05</v>
+        <v>-0.01273386924663877</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2405365813572818</v>
+        <v>0.2436669400226923</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01460427135678399</v>
+        <v>-0.002785946447918186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09866813042593348</v>
+        <v>0.09865250457777726</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001411161000641314</v>
+        <v>-0.02280297207276438</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1034831456384883</v>
+        <v>0.1020872417628093</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01194058829239875</v>
+        <v>-0.02967184122617406</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03134029409265042</v>
+        <v>0.03065325403333874</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0203865756322722</v>
+        <v>-0.03720427996466091</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02885734153697536</v>
+        <v>0.02863999492873752</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005973807153251243</v>
+        <v>-0.03220587102242067</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001569777335935552</v>
+        <v>-0.01434015813993805</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4963000646746448</v>
+        <v>0.4971088642703818</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01273386924663877</v>
+        <v>0.0009367343997694899</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2436669400226923</v>
+        <v>0.2465232797940843</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002785946447918186</v>
+        <v>-0.01117491851621932</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09865250457777726</v>
+        <v>0.09780548032580662</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02280297207276438</v>
+        <v>-0.01035658101730474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1020872417628093</v>
+        <v>0.1004993012062562</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02967184122617406</v>
+        <v>-0.001620089104900746</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03065325403333874</v>
+        <v>0.0299421976376355</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.03720427996466091</v>
+        <v>-0.01223491027732482</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02863999492873752</v>
+        <v>0.02812087676583561</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.03220587102242067</v>
+        <v>-0.02189316137250219</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01434015813993805</v>
+        <v>-0.004446961788895698</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4971088642703818</v>
+        <v>0.4997971018581381</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0009367343997694899</v>
+        <v>0.007702829169966119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2465232797940843</v>
+        <v>0.2448572731675436</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01117491851621932</v>
+        <v>-0.002197457228064637</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09780548032580662</v>
+        <v>0.09722490538404785</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01035658101730474</v>
+        <v>0.01443899854285347</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1004993012062562</v>
+        <v>0.1007846689550715</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001620089104900746</v>
+        <v>0.02160243407707907</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0299421976376355</v>
+        <v>0.02970796773336915</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01223491027732482</v>
+        <v>0.02652766308835686</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02812087676583561</v>
+        <v>0.02762808290182981</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02189316137250219</v>
+        <v>0.020836724727332</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004446961788895698</v>
+        <v>0.008256574461982691</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4997971018581381</v>
+        <v>0.4995226079454501</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007702829169966119</v>
+        <v>0.01607372481783109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2448572731675436</v>
+        <v>0.2423184891337296</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002197457228064637</v>
+        <v>0.01588799748308944</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09722490538404785</v>
+        <v>0.09782106871343398</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01443899854285347</v>
+        <v>0.02468007312614251</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1007846689550715</v>
+        <v>0.102118712369513</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02160243407707907</v>
+        <v>0.02084781097984711</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02970796773336915</v>
+        <v>0.03024631970162236</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02652766308835686</v>
+        <v>0.02413273001508287</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02762808290182981</v>
+        <v>0.02797280213625088</v>
       </c>
       <c r="E7" s="1">
-        <v>0.020836724727332</v>
+        <v>0.02280338064104592</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.008256574461982691</v>
+        <v>0.01779012794999191</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4995226079454501</v>
+        <v>0.4986802121063496</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01607372481783109</v>
+        <v>-0.002601420234830898</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2423184891337296</v>
+        <v>0.2418656242766068</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01588799748308944</v>
+        <v>0.001083926912356814</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09782106871343398</v>
+        <v>0.09848326987062692</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02468007312614251</v>
+        <v>-0.01886071109978327</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.102118712369513</v>
+        <v>0.102425501210619</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02084781097984711</v>
+        <v>-0.01760186715938927</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03024631970162236</v>
+        <v>0.03043480686074554</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02413273001508287</v>
+        <v>-0.02592047128129615</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02797280213625088</v>
+        <v>0.02811058567505208</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02280338064104592</v>
+        <v>-0.02463361396944164</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01779012794999191</v>
+        <v>-0.006176806555550751</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4986802121063496</v>
+        <v>0.5004742680516523</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002601420234830898</v>
+        <v>0.0004934442408008888</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2418656242766068</v>
+        <v>0.2436326607520135</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001083926912356814</v>
+        <v>-0.004949729311678364</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09848326987062692</v>
+        <v>0.09722635374864194</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01886071109978327</v>
+        <v>0.01078062085985199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.102425501210619</v>
+        <v>0.1012480105196903</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01760186715938927</v>
+        <v>0.01484854484260545</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03043480686074554</v>
+        <v>0.02983017755986481</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02592047128129615</v>
+        <v>0.01673218425561962</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02811058567505208</v>
+        <v>0.02758852936813705</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02463361396944164</v>
+        <v>0.01278772378516613</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006176806555550751</v>
+        <v>0.002444505025317012</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5004742680516523</v>
+        <v>0.4995001934638222</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0004934442408008888</v>
+        <v>-0.004861551469033998</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2436326607520135</v>
+        <v>0.2418355767471482</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004949729311678364</v>
+        <v>0.0121249805689414</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09722635374864194</v>
+        <v>0.09803486747978127</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01078062085985199</v>
+        <v>0.007067591878694435</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1012480105196903</v>
+        <v>0.1025008323443516</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01484854484260545</v>
+        <v>-0.005754974639094801</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02983017755986481</v>
+        <v>0.03025534225099906</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01673218425561962</v>
+        <v>-0.001288787548329728</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02758852936813705</v>
+        <v>0.0278731877138975</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01278772378516613</v>
+        <v>0.01191603535353525</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002444505025317012</v>
+        <v>0.0009000316940730446</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4995001934638222</v>
+        <v>0.494707487409747</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004861551469033998</v>
+        <v>0.009284006189337557</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2418355767471482</v>
+        <v>0.2455238719580063</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0121249805689414</v>
+        <v>0.01983045716015752</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09803486747978127</v>
+        <v>0.09921518746102923</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007067591878694435</v>
+        <v>0.005397941250313787</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1025008323443516</v>
+        <v>0.1019813462209867</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005754974639094801</v>
+        <v>0.006978772899098651</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03025534225099906</v>
+        <v>0.03020593174198809</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001288787548329728</v>
+        <v>0.002258001178087499</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0278731877138975</v>
+        <v>0.02836617520824281</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01191603535353525</v>
+        <v>0.004369825206991695</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0009000316940730446</v>
+        <v>0.01090114066486647</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.494707487409747</v>
+        <v>0.4939161058383833</v>
       </c>
       <c r="E2" s="1">
-        <v>0.009284006189337557</v>
+        <v>-0.0006968641114981633</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2455238719580063</v>
+        <v>0.2476925908086156</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01983045716015752</v>
+        <v>-0.001039038147543581</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09921518746102923</v>
+        <v>0.09867507434849365</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005397941250313787</v>
+        <v>0.001373454863278889</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1019813462209867</v>
+        <v>0.1015856514007556</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006978772899098651</v>
+        <v>-0.0006737895851380848</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03020593174198809</v>
+        <v>0.02994767297575263</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002258001178087499</v>
+        <v>-0.0005877167205408096</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02836617520824281</v>
+        <v>0.02818290462799939</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004369825206991695</v>
+        <v>-0.0006869704602702198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01090114066486647</v>
+        <v>-0.000571437623241744</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4939161058383833</v>
+        <v>0.4942427638340384</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0006968641114981633</v>
+        <v>-0.0003490157755128287</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2476925908086156</v>
+        <v>0.2488981166885851</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001039038147543581</v>
+        <v>0.0100681077879774</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09867507434849365</v>
+        <v>0.09802894956437262</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001373454863278889</v>
+        <v>0.006550768455530598</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1015856514007556</v>
+        <v>0.1014310908590877</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0006737895851380848</v>
+        <v>0.000289883080490938</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02994767297575263</v>
+        <v>0.02966778548946358</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0005877167205408096</v>
+        <v>0.001982160555004997</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02818290462799939</v>
+        <v>0.0277312935644526</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0006869704602702198</v>
+        <v>0.007930954047119076</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.000571437623241744</v>
+        <v>0.003283744582223358</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4942427638340384</v>
+        <v>0.4924531748675571</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0003490157755128287</v>
+        <v>0.005656029606870838</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2488981166885851</v>
+        <v>0.2505812050810385</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0100681077879774</v>
+        <v>0.008355321020228734</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09802894956437262</v>
+        <v>0.09834816426333637</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006550768455530598</v>
+        <v>0.00387984981226519</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1014310908590877</v>
+        <v>0.1011284141341417</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000289883080490938</v>
+        <v>0.005699381761978373</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02966778548946358</v>
+        <v>0.02962929676090144</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001982160555004997</v>
+        <v>0.00257171117705246</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0277312935644526</v>
+        <v>0.02785974489302485</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007930954047119076</v>
+        <v>0.001234282187765112</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003283744582223358</v>
+        <v>0.005947546473449528</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4924531748675571</v>
+        <v>0.4922177157500554</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005656029606870838</v>
+        <v>0.01147107897664079</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2505812050810385</v>
+        <v>0.252544514914781</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008355321020228734</v>
+        <v>0.007381676074685206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09834816426333637</v>
+        <v>0.09836056011603624</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00387984981226519</v>
+        <v>0.01706102117061037</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1011284141341417</v>
+        <v>0.1008414961833248</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005699381761978373</v>
+        <v>0.01744914682348409</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02962929676090144</v>
+        <v>0.02890796038279522</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00257171117705246</v>
+        <v>0.02128732849071824</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02785974489302485</v>
+        <v>0.02712775265300726</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001234282187765112</v>
+        <v>0.02317880794701987</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005947546473449528</v>
+        <v>0.01219236198334883</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4922177157500554</v>
+        <v>0.4918669639687679</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01147107897664079</v>
+        <v>-0.007766856828648083</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.252544514914781</v>
+        <v>0.2513442368008163</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007381676074685206</v>
+        <v>-0.01034482758620692</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09836056011603624</v>
+        <v>0.09883367576347579</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01706102117061037</v>
+        <v>-0.002448879637565904</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1008414961833248</v>
+        <v>0.1013652128880768</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01744914682348409</v>
+        <v>-0.00606405154443812</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02890796038279522</v>
+        <v>0.02916771034866406</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02128732849071824</v>
+        <v>-0.006519806381507509</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02712775265300726</v>
+        <v>0.02742220023019911</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02317880794701987</v>
+        <v>-0.003313299429804295</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01219236198334883</v>
+        <v>-0.007558114518679382</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4918669639687679</v>
+        <v>0.4917635085949489</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007766856828648083</v>
+        <v>0.008104738154613322</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2513442368008163</v>
+        <v>0.250638478328318</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01034482758620692</v>
+        <v>0.01321138211382133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09883367576347579</v>
+        <v>0.0993424858721851</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002448879637565904</v>
+        <v>0.01657051675463372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1013652128880768</v>
+        <v>0.1015178122630807</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00606405154443812</v>
+        <v>0.01811248808388943</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02916771034866406</v>
+        <v>0.02919822606090952</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006519806381507509</v>
+        <v>0.02018494580888941</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02742220023019911</v>
+        <v>0.02753948888055757</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003313299429804295</v>
+        <v>0.01677618863548513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007558114518679382</v>
+        <v>0.01183316394342793</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4917635085949489</v>
+        <v>0.4899514472662832</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008104738154613322</v>
+        <v>-0.0004810004810003043</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.250638478328318</v>
+        <v>0.2509798730535962</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01321138211382133</v>
+        <v>0.004585184123800046</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0993424858721851</v>
+        <v>0.09980760247587951</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01657051675463372</v>
+        <v>0.006520164211543111</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1015178122630807</v>
+        <v>0.1021478205213058</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01811248808388943</v>
+        <v>0.002621722846442021</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02919822606090952</v>
+        <v>0.02943923141990444</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02018494580888941</v>
+        <v>0.001949317738791478</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02753948888055757</v>
+        <v>0.02767402526303063</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01677618863548513</v>
+        <v>0.007831508515815155</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01183316394342793</v>
+        <v>0.002107803060532154</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4899514472662832</v>
+        <v>0.4886857271132336</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0004810004810003043</v>
+        <v>0.002062422659150132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2509798730535962</v>
+        <v>0.2516003380204045</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004585184123800046</v>
+        <v>-0.00285266010554841</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09980760247587951</v>
+        <v>0.1002470633666092</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006520164211543111</v>
+        <v>-0.0004798464491363452</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1021478205213058</v>
+        <v>0.1022002058893203</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002621722846442021</v>
+        <v>0.003455360478147096</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02943923141990444</v>
+        <v>0.02943457554750315</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001949317738791478</v>
+        <v>0.004766536964980528</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02767402526303063</v>
+        <v>0.02783209006292929</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007831508515815155</v>
+        <v>0.0006035458317612541</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002107803060532154</v>
+        <v>0.0007522805592263815</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4886857271132336</v>
+        <v>0.4893254935740856</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002062422659150132</v>
+        <v>0.001234906695938509</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2516003380204045</v>
+        <v>0.2506940155393865</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00285266010554841</v>
+        <v>-0.00185953368616798</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1002470633666092</v>
+        <v>0.1001236391020009</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0004798464491363452</v>
+        <v>-0.001800288046087339</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1022002058893203</v>
+        <v>0.102476253548282</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003455360478147096</v>
+        <v>0.001395998138669086</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02943457554750315</v>
+        <v>0.02955264465984751</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004766536964980528</v>
+        <v>0.004163036111917817</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02783209006292929</v>
+        <v>0.0278279535763974</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0006035458317612541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0007522805592263815</v>
+        <v>0.0002239313572187651</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4893254935740856</v>
+        <v>0.4898200788275489</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001234906695938509</v>
+        <v>0.009250376867205645</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2506940155393865</v>
+        <v>0.2501718202573223</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00185953368616798</v>
+        <v>0.004299226139294898</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1001236391020009</v>
+        <v>0.099921012263504</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001800288046087339</v>
+        <v>-0.004088012504508853</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.102476253548282</v>
+        <v>0.1025963356708008</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001395998138669086</v>
+        <v>0.003252788104089133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02955264465984751</v>
+        <v>0.02966902956071224</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004163036111917817</v>
+        <v>0.003181642884689584</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0278279535763974</v>
+        <v>0.02782172342011177</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.003543692980471858</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0002239313572187651</v>
+        <v>0.005527615958650145</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4898200788275489</v>
+        <v>0.4916335377646724</v>
       </c>
       <c r="E2" s="1">
-        <v>0.009250376867205645</v>
+        <v>-0.006110394459908908</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2501718202573223</v>
+        <v>0.2498662010856393</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004299226139294898</v>
+        <v>-0.007420091324200739</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.099921012263504</v>
+        <v>0.09896549069021275</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004088012504508853</v>
+        <v>-0.01629844259326318</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1025963356708008</v>
+        <v>0.1023642296615219</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003252788104089133</v>
+        <v>-0.01130152848540988</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02966902956071224</v>
+        <v>0.02959980943848455</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003181642884689584</v>
+        <v>-0.01547333012974539</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02782172342011177</v>
+        <v>0.02757073135946904</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003543692980471858</v>
+        <v>-0.01195520581113796</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005527615958650145</v>
+        <v>-0.008415581893470025</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4916335377646724</v>
+        <v>0.4927764636038424</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006110394459908908</v>
+        <v>0.007514174465468981</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2498662010856393</v>
+        <v>0.2501170515853222</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007420091324200739</v>
+        <v>-0.002587694077055946</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09896549069021275</v>
+        <v>0.09817873853583005</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01629844259326318</v>
+        <v>0.001840942562591819</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1023642296615219</v>
+        <v>0.1020663047503053</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01130152848540988</v>
+        <v>0.01049376932446355</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02959980943848455</v>
+        <v>0.02938912843236561</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01547333012974539</v>
+        <v>0.01727840687231552</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02757073135946904</v>
+        <v>0.02747231309233458</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01195520581113796</v>
+        <v>0.004671465768111283</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008415581893470025</v>
+        <v>0.004943516872259357</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4927764636038424</v>
+        <v>0.4940369917197517</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007514174465468981</v>
+        <v>0.001695030171537049</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2501170515853222</v>
+        <v>0.2482426335251187</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002587694077055946</v>
+        <v>-0.01326030556356295</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09817873853583005</v>
+        <v>0.09787563012543414</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001840942562591819</v>
+        <v>-0.01053534239862797</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1020663047503053</v>
+        <v>0.1026300118131569</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01049376932446355</v>
+        <v>0.001947148817802447</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02938912843236561</v>
+        <v>0.02974985683184722</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01727840687231552</v>
+        <v>0.0009596008060648309</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02747231309233458</v>
+        <v>0.02746487598469143</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004671465768111283</v>
+        <v>-0.01074777040932995</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004943516872259357</v>
+        <v>-0.003552321132114122</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4940369917197517</v>
+        <v>0.4966386191885395</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001695030171537049</v>
+        <v>0.002639772573439725</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2482426335251187</v>
+        <v>0.2458241065190427</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01326030556356295</v>
+        <v>-0.001898919076833261</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09787563012543414</v>
+        <v>0.09718972596695802</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01053534239862797</v>
+        <v>-0.002599975238330998</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1026300118131569</v>
+        <v>0.1031964345946995</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001947148817802447</v>
+        <v>-0.001203035350731074</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02974985683184722</v>
+        <v>0.02988456438804304</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009596008060648309</v>
+        <v>0.001054548940657485</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02746487598469143</v>
+        <v>0.02726654934271721</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01074777040932995</v>
+        <v>-0.004854368932038722</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003552321132114122</v>
+        <v>0.0003665259263134768</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4966386191885395</v>
+        <v>0.4977671876148553</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002639772573439725</v>
+        <v>0.008911091608722055</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2458241065190427</v>
+        <v>0.2452674095691414</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001898919076833261</v>
+        <v>0.007171081516171407</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09718972596695802</v>
+        <v>0.09690151816731629</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002599975238330998</v>
+        <v>-0.0002482621648459693</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1031964345946995</v>
+        <v>0.1030345208126295</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001203035350731074</v>
+        <v>0.009357917168535179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02988456438804304</v>
+        <v>0.02990511812263905</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001054548940657485</v>
+        <v>0.009097873970503878</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02726654934271721</v>
+        <v>0.02712424571341835</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004854368932038722</v>
+        <v>0.004103755323267455</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0003665259263134768</v>
+        <v>0.007517997390008357</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4977671876148553</v>
+        <v>0.4984554498524808</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008911091608722055</v>
+        <v>0.00796252927400487</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2452674095691414</v>
+        <v>0.2451829573231916</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007171081516171407</v>
+        <v>0.006829410055216645</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09690151816731629</v>
+        <v>0.09615457137004187</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0002482621648459693</v>
+        <v>0.01204370499130869</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1030345208126295</v>
+        <v>0.1032226814739828</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009357917168535179</v>
+        <v>0.01083165044978895</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02990511812263905</v>
+        <v>0.02995201197057159</v>
       </c>
       <c r="E6" s="1">
-        <v>0.009097873970503878</v>
+        <v>0.008351523203947941</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02712424571341835</v>
+        <v>0.0270323280097314</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004103755323267455</v>
+        <v>0.008713756940160522</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007517997390008357</v>
+        <v>0.00840524841949164</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4984554498524808</v>
+        <v>0.498236613455935</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00796252927400487</v>
+        <v>-0.000199150292087058</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2451829573231916</v>
+        <v>0.244799809069033</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006829410055216645</v>
+        <v>-0.01948333092798393</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09615457137004187</v>
+        <v>0.09650150950097673</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01204370499130869</v>
+        <v>-0.0180345969819653</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1032226814739828</v>
+        <v>0.1034710535687272</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01083165044978895</v>
+        <v>-0.006992371957864174</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02995201197057159</v>
+        <v>0.0299504162050779</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008351523203947941</v>
+        <v>-0.01618823529411761</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0270323280097314</v>
+        <v>0.02704059820025013</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008713756940160522</v>
+        <v>-0.02499808883112908</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.00840524841949164</v>
+        <v>-0.008493421244264776</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.498236613455935</v>
+        <v>0.5024045227354528</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.000199150292087058</v>
+        <v>-0.01354491733616625</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.244799809069033</v>
+        <v>0.2420864354516471</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01948333092798393</v>
+        <v>-0.004268472181336413</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09650150950097673</v>
+        <v>0.09557288443601987</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0180345969819653</v>
+        <v>-0.008995502248875686</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1034710535687272</v>
+        <v>0.1036276991769866</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006992371957864174</v>
+        <v>-0.009785093735711015</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0299504162050779</v>
+        <v>0.02971797913572129</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01618823529411761</v>
+        <v>-0.007079307375872923</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02704059820025013</v>
+        <v>0.02659047906417222</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02499808883112908</v>
+        <v>-0.004625999686372895</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008493421244264776</v>
+        <v>-0.01004549004861366</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5024045227354528</v>
+        <v>0.5006285541645973</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01354491733616625</v>
+        <v>-0.01736555159184217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2420864354516471</v>
+        <v>0.2434991646720012</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004268472181336413</v>
+        <v>-0.02498152254249819</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09557288443601987</v>
+        <v>0.09567425309653389</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008995502248875686</v>
+        <v>-0.02861825516893601</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1036276991769866</v>
+        <v>0.1036549572686555</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.009785093735711015</v>
+        <v>-0.03084595493165865</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02971797913572129</v>
+        <v>0.02980702257549064</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007079307375872923</v>
+        <v>-0.0310241834473457</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02659047906417222</v>
+        <v>0.02673604822272146</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004625999686372895</v>
+        <v>-0.03339897597479324</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01004549004861366</v>
+        <v>-0.02252973235424649</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5006285541645973</v>
+        <v>0.5032734799839308</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01736555159184217</v>
+        <v>0.01363107062127544</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2434991646720012</v>
+        <v>0.2428883953396222</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02498152254249819</v>
+        <v>0.01061249241964823</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09567425309653389</v>
+        <v>0.09507831182646373</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02861825516893601</v>
+        <v>0.01232965606748881</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1036549572686555</v>
+        <v>0.1027730709091098</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.03084595493165865</v>
+        <v>0.0243948923194206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02980702257549064</v>
+        <v>0.02954799239945446</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0310241834473457</v>
+        <v>0.02674753902754312</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02673604822272146</v>
+        <v>0.02643874954141899</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.03339897597479324</v>
+        <v>0.0213511531252546</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02252973235424649</v>
+        <v>0.01447206235408882</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5032734799839308</v>
+        <v>0.5028562690505626</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01363107062127544</v>
+        <v>0.01243411271793482</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2428883953396222</v>
+        <v>0.2419643238123078</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01061249241964823</v>
+        <v>0.01845184518451837</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09507831182646373</v>
+        <v>0.09487752130641366</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01232965606748881</v>
+        <v>0.01846153846153853</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1027730709091098</v>
+        <v>0.1037783225522941</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0243948923194206</v>
+        <v>0.01386046511627903</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02954799239945446</v>
+        <v>0.02990553373046482</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02674753902754312</v>
+        <v>0.02101491380980058</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02643874954141899</v>
+        <v>0.02661802954795707</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0213511531252546</v>
+        <v>0.02401659618606877</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01447206235408882</v>
+        <v>0.01517499728245597</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5028562690505626</v>
+        <v>0.5014986006784071</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01243411271793482</v>
+        <v>-0.0006674676278199954</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2419643238123078</v>
+        <v>0.2427453519985622</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01845184518451837</v>
+        <v>-0.005155398438650649</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09487752130641366</v>
+        <v>0.09518467906894477</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01846153846153853</v>
+        <v>-0.004657603222558038</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1037783225522941</v>
+        <v>0.1036439418361496</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01386046511627903</v>
+        <v>0.003394806863014965</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02990553373046482</v>
+        <v>0.03007756891765827</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02101491380980058</v>
+        <v>0.005501280470454395</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02661802954795707</v>
+        <v>0.02684985750027815</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02401659618606877</v>
+        <v>-0.003817983481377629</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01517499728245597</v>
+        <v>-0.001614711562875071</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5014986006784071</v>
+        <v>0.5019744104819298</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0006674676278199954</v>
+        <v>-0.008549292011755361</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2427453519985622</v>
+        <v>0.2418844766512078</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005155398438650649</v>
+        <v>-0.007995262066923359</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09518467906894477</v>
+        <v>0.09489457396681343</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004657603222558038</v>
+        <v>-0.007967623624636322</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1036439418361496</v>
+        <v>0.1041639877967354</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003394806863014965</v>
+        <v>-0.01316752011704458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03007756891765827</v>
+        <v>0.03029194681693103</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005501280470454395</v>
+        <v>-0.01273464767474786</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02684985750027815</v>
+        <v>0.02679060428638238</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003817983481377629</v>
+        <v>-0.00789988267500974</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001614711562875071</v>
+        <v>-0.008950521153309521</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5019744104819298</v>
+        <v>0.5021776362199971</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008549292011755361</v>
+        <v>-0.006332524925895977</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2418844766512078</v>
+        <v>0.2421176258017888</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007995262066923359</v>
+        <v>0.0004477611940298942</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09489457396681343</v>
+        <v>0.09498868797850235</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007967623624636322</v>
+        <v>-0.004844467108618189</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1041639877967354</v>
+        <v>0.1037207612596421</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01316752011704458</v>
+        <v>-0.008432171979243841</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03029194681693103</v>
+        <v>0.03017628300621055</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01273464767474786</v>
+        <v>-0.007930441429390256</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02679060428638238</v>
+        <v>0.02681900573385898</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.00789988267500974</v>
+        <v>-0.005124566382844642</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008950521153309521</v>
+        <v>-0.004783149412870724</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5021776362199971</v>
+        <v>0.5013958350152756</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006332524925895977</v>
+        <v>0.005220338983050965</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2421176258017888</v>
+        <v>0.2433902084114753</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0004477611940298942</v>
+        <v>0.01581381470983145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09498868797850235</v>
+        <v>0.09498283549774354</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004844467108618189</v>
+        <v>0.0097361004355625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1037207612596421</v>
+        <v>0.1033404628370274</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.008432171979243841</v>
+        <v>-0.0002803476310625497</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03017628300621055</v>
+        <v>0.03008085297552161</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007930441429390256</v>
+        <v>-0.0001926225561013073</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02681900573385898</v>
+        <v>0.02680980526295662</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005124566382844642</v>
+        <v>0.007449084713527121</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004783149412870724</v>
+        <v>0.007556089313354608</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5013958350152756</v>
+        <v>0.5002334823684389</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005220338983050965</v>
+        <v>0.003574559924462317</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2433902084114753</v>
+        <v>0.2453849852051156</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01581381470983145</v>
+        <v>-0.004552797767660488</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09498283549774354</v>
+        <v>0.09518834627773895</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0097361004355625</v>
+        <v>0.000888099467140302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1033404628370274</v>
+        <v>0.1025367150065904</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0002803476310625497</v>
+        <v>0.003832492054589576</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03008085297552161</v>
+        <v>0.02984951313750463</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0001926225561013073</v>
+        <v>0.007513727001252413</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02680980526295662</v>
+        <v>0.02680695800461137</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007449084713527121</v>
+        <v>0.001730512074254786</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007556089313354608</v>
+        <v>0.001419105068599213</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5002334823684389</v>
+        <v>0.5013101851027676</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003574559924462317</v>
+        <v>0.005107526881720448</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2453849852051156</v>
+        <v>0.2439216465473</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004552797767660488</v>
+        <v>0.01460607848922968</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09518834627773895</v>
+        <v>0.0951378723604637</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000888099467140302</v>
+        <v>0.005323868677906018</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1025367150065904</v>
+        <v>0.1027838251049804</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003832492054589576</v>
+        <v>0.004749045534965912</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02984951313750463</v>
+        <v>0.03003117683507748</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007513727001252413</v>
+        <v>0.00296395448895681</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02680695800461137</v>
+        <v>0.02681529404941089</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001730512074254786</v>
+        <v>0.006595995288574796</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001419105068599213</v>
+        <v>0.007383705160209253</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5013101851027676</v>
+        <v>0.5001774773288865</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005107526881720448</v>
+        <v>-0.005616474993313747</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2439216465473</v>
+        <v>0.2456704272605177</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01460607848922968</v>
+        <v>0.001308710193398399</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0951378723604637</v>
+        <v>0.09494334026774374</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005323868677906018</v>
+        <v>-0.002269575085109055</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1027838251049804</v>
+        <v>0.102515009565534</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004749045534965912</v>
+        <v>-0.0115848007414272</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03003117683507748</v>
+        <v>0.0298994193793082</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00296395448895681</v>
+        <v>-0.0158245948522403</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02681529404941089</v>
+        <v>0.02679432619800997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006595995288574796</v>
+        <v>-0.005616662766206315</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007383705160209253</v>
+        <v>-0.004514460791951613</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5001774773288865</v>
+        <v>0.4996237749781156</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005616474993313747</v>
+        <v>0.002084454007530878</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2456704272605177</v>
+        <v>0.2471074957538683</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001308710193398399</v>
+        <v>0.001742666279407556</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09494334026774374</v>
+        <v>0.09515744377716941</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002269575085109055</v>
+        <v>0.0068242133198535</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.102515009565534</v>
+        <v>0.1017869066057173</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0115848007414272</v>
+        <v>0.0111579934364745</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0298994193793082</v>
+        <v>0.02955971937545501</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0158245948522403</v>
+        <v>0.02111584657109655</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02679432619800997</v>
+        <v>0.02676465950967439</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005616662766206315</v>
+        <v>0.01945555817054978</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004514460791951613</v>
+        <v>0.004402080900405281</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4996237749781156</v>
+        <v>0.4984709084924442</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002084454007530878</v>
+        <v>0.004629940280480582</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2471074957538683</v>
+        <v>0.2464532146649872</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001742666279407556</v>
+        <v>-0.003334299797042695</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09515744377716941</v>
+        <v>0.09538691754460515</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0068242133198535</v>
+        <v>0.005146228191289071</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1017869066057173</v>
+        <v>0.1024715561613304</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0111579934364745</v>
+        <v>0.00723293768545985</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02955971937545501</v>
+        <v>0.03005160826370766</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02111584657109655</v>
+        <v>0.01290077784101684</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02676465950967439</v>
+        <v>0.02716579487292538</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01945555817054978</v>
+        <v>0.007464409388226345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004402080900405281</v>
+        <v>0.003308660594897539</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4984709084924442</v>
+        <v>0.4991273560156367</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004629940280480582</v>
+        <v>0.0009350788137856281</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2464532146649872</v>
+        <v>0.2448214347274801</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003334299797042695</v>
+        <v>0.002763636363636301</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09538691754460515</v>
+        <v>0.09556161942417998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005146228191289071</v>
+        <v>0.0011238761238761</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1024715561613304</v>
+        <v>0.1028723568282355</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00723293768545985</v>
+        <v>0.001841281531946182</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03005160826370766</v>
+        <v>0.03033891620912997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01290077784101684</v>
+        <v>-0.003277767372167117</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02716579487292538</v>
+        <v>0.02727831679533761</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007464409388226345</v>
+        <v>-0.002520623281393131</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003308660594897539</v>
+        <v>0.001271934958758214</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4991273560156367</v>
+        <v>0.5411981084181636</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0009350788137856281</v>
+        <v>-0.003186404673393484</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2448214347274801</v>
+        <v>0.2503108778370013</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002763636363636301</v>
+        <v>0.0002885586495455783</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09556161942417998</v>
+        <v>0.04993701561414619</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0011238761238761</v>
+        <v>-0.004474829086388965</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1028723568282355</v>
+        <v>0.09932441087450769</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001841281531946182</v>
+        <v>-0.007726570311789915</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03033891620912997</v>
+        <v>0.02908285442189512</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.003277767372167117</v>
+        <v>-0.008511408909815166</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02727831679533761</v>
+        <v>0.03014673283428608</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002520623281393131</v>
+        <v>-0.007412398921832986</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001271934958758214</v>
+        <v>-0.003114139143483907</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5411981084181636</v>
+        <v>0.5411588762757222</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003186404673393484</v>
+        <v>-0.004128929142248161</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2503108778370013</v>
+        <v>0.2511652708071809</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0002885586495455783</v>
+        <v>0.008221549112938265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04993701561414619</v>
+        <v>0.04986885455620273</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004474829086388965</v>
+        <v>0.002996628792608202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09932441087450769</v>
+        <v>0.09886485273803498</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007726570311789915</v>
+        <v>-0.007328691828508704</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02908285442189512</v>
+        <v>0.02892539606376871</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008511408909815166</v>
+        <v>-0.01844748858447487</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03014673283428608</v>
+        <v>0.03001674955909055</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007412398921832986</v>
+        <v>-0.01221995926680253</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003114139143483907</v>
+        <v>-0.001644955009027504</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5411588762757222</v>
+        <v>0.5390778285537491</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004128929142248161</v>
+        <v>-0.004606449028640158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2511652708071809</v>
+        <v>0.253349841752445</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008221549112938265</v>
+        <v>0.00885334856490072</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04986885455620273</v>
+        <v>0.05026613890474265</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002996628792608202</v>
+        <v>-0.004453240969816918</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09886485273803498</v>
+        <v>0.09880028813735929</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007328691828508704</v>
+        <v>-0.01208348590259967</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02892539606376871</v>
+        <v>0.02860307835161765</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01844748858447487</v>
+        <v>-0.00876141289311072</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03001674955909055</v>
+        <v>0.02990282430008643</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01221995926680253</v>
+        <v>-0.002041587901701503</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001644955009027504</v>
+        <v>-0.001969591823621664</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5390778285537491</v>
+        <v>0.5303038492824088</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004606449028640158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.253349841752445</v>
+        <v>0.2686013116899285</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00885334856490072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05026613890474265</v>
+        <v>0.05024917889897976</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004453240969816918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09880028813735929</v>
+        <v>0.09414425349821334</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01208348590259967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02860307835161765</v>
+        <v>0.02712651462745395</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00876141289311072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02990282430008643</v>
+        <v>0.02957489200301565</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002041587901701503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001969591823621664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -546,7 +546,7 @@
         <v>0.5303038492824088</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.001628001628001696</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -563,7 +563,7 @@
         <v>0.2686013116899285</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.005115778136779658</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -580,7 +580,7 @@
         <v>0.05024917889897976</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.0004947433518862621</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -597,7 +597,7 @@
         <v>0.09414425349821334</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0011522949875169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -614,7 +614,7 @@
         <v>0.02712651462745395</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.008262052877138326</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -631,7 +631,7 @@
         <v>0.02957489200301565</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0044322176371695</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.002015579590251004</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5303038492824088</v>
+        <v>0.5300987286341232</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001628001628001696</v>
+        <v>-0.009481240688067105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2686013116899285</v>
+        <v>0.2694323540539976</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005115778136779658</v>
+        <v>-0.007098848111438572</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05024917889897976</v>
+        <v>0.05017291184907132</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0004947433518862621</v>
+        <v>-0.01174434417109649</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09414425349821334</v>
+        <v>0.09406314369699235</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0011522949875169</v>
+        <v>-0.01218108574717069</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02712651462745395</v>
+        <v>0.02684827908587062</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008262052877138326</v>
+        <v>-0.01244731941585808</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02957489200301565</v>
+        <v>0.02938458267994476</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0044322176371695</v>
+        <v>-0.01174393613754998</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002015579590251004</v>
+        <v>-0.009352971924168285</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5300987286341232</v>
+        <v>0.5300300915648753</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.009481240688067105</v>
+        <v>0.01531519212361543</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2694323540539976</v>
+        <v>0.2700454219459718</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007098848111438572</v>
+        <v>0.006475111290975333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05017291184907132</v>
+        <v>0.05005179695593275</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01174434417109649</v>
+        <v>0.01788841631223415</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09406314369699235</v>
+        <v>0.09379461083979374</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01218108574717069</v>
+        <v>0.02553645985047104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02684827908587062</v>
+        <v>0.02676441681940129</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01244731941585808</v>
+        <v>0.02858277094084949</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02938458267994476</v>
+        <v>0.02931366187402526</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01174393613754998</v>
+        <v>0.02469902912621369</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.009352971924168285</v>
+        <v>0.01464563672309338</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5300300915648753</v>
+        <v>0.5306642001721305</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01531519212361543</v>
+        <v>-0.006907652068942394</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2700454219459718</v>
+        <v>0.2677408637935658</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006475111290975333</v>
+        <v>-0.0002672367717799773</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05005179695593275</v>
+        <v>0.05005160372143046</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01788841631223415</v>
+        <v>-0.01228501228501233</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09379461083979374</v>
+        <v>0.09478613289965959</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02553645985047104</v>
+        <v>-0.01773919607473118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02676441681940129</v>
+        <v>0.02721814483363739</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02858277094084949</v>
+        <v>-0.02050987157370143</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02931366187402526</v>
+        <v>0.02953905457957641</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02469902912621369</v>
+        <v>-0.01710695632427539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01464563672309338</v>
+        <v>-0.00709707219918676</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CORE_holdings.xlsx
+++ b/CORE_holdings.xlsx
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,10 +543,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5306642001721305</v>
+        <v>0.5307654371401141</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006907652068942394</v>
+        <v>-0.0003376553214479161</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2677408637935658</v>
+        <v>0.2695825604848546</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0002672367717799773</v>
+        <v>0.00320769847634339</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05005160372143046</v>
+        <v>0.04979008296845878</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01228501228501233</v>
+        <v>-0.009701492537313561</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09478613289965959</v>
+        <v>0.09377019696095083</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01773919607473118</v>
+        <v>-0.002305475504322696</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02721814483363739</v>
+        <v>0.02685046385921559</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02050987157370143</v>
+        <v>-0.01135029354207417</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02953905457957641</v>
+        <v>0.02924125858640602</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01710695632427539</v>
+        <v>-0.01270696958028494</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00709707219918676</v>
+        <v>-0.0006900276461444532</v>
       </c>
     </row>
     <row r="11" spans="1:5">
